--- a/doc/泽阳开发计划1.xlsx
+++ b/doc/泽阳开发计划1.xlsx
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
